--- a/天然气/eta/美国天然气HH连1合约Trend_F0.1_月度数据.xlsx
+++ b/天然气/eta/美国天然气HH连1合约Trend_F0.1_月度数据.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>3.22818</v>
+        <v>3.22485</v>
       </c>
     </row>
     <row r="3">
@@ -468,10 +468,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.24902</v>
+        <v>3.24642</v>
       </c>
       <c r="C3" t="n">
-        <v>3.24404</v>
+        <v>3.24343</v>
       </c>
     </row>
     <row r="4">
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.26815</v>
+        <v>3.26817</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.28544</v>
+        <v>3.28592</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.29636</v>
+        <v>3.29746</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
@@ -514,7 +514,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.3007</v>
+        <v>3.3026</v>
       </c>
       <c r="C7" t="inlineStr"/>
     </row>
@@ -525,7 +525,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.2985</v>
+        <v>3.30118</v>
       </c>
       <c r="C8" t="inlineStr"/>
     </row>
@@ -536,7 +536,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.29125</v>
+        <v>3.29487</v>
       </c>
       <c r="C9" t="inlineStr"/>
     </row>
@@ -547,7 +547,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.28113</v>
+        <v>3.28603</v>
       </c>
       <c r="C10" t="inlineStr"/>
     </row>
@@ -558,7 +558,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.27245</v>
+        <v>3.2791</v>
       </c>
       <c r="C11" t="inlineStr"/>
     </row>
@@ -569,7 +569,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3.22121</v>
+        <v>3.22206</v>
       </c>
       <c r="C12" t="inlineStr"/>
     </row>
@@ -580,7 +580,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.12489</v>
+        <v>3.12559</v>
       </c>
       <c r="C13" t="inlineStr"/>
     </row>
@@ -591,7 +591,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.01671</v>
+        <v>3.01727</v>
       </c>
       <c r="C14" t="inlineStr"/>
     </row>
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.90067</v>
+        <v>2.90109</v>
       </c>
       <c r="C15" t="inlineStr"/>
     </row>
@@ -613,7 +613,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2.74722</v>
+        <v>2.7475</v>
       </c>
       <c r="C16" t="inlineStr"/>
     </row>
@@ -624,7 +624,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.60302</v>
+        <v>2.60319</v>
       </c>
       <c r="C17" t="inlineStr"/>
     </row>
@@ -635,7 +635,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2.46241</v>
+        <v>2.46251</v>
       </c>
       <c r="C18" t="inlineStr"/>
     </row>
@@ -646,7 +646,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2.36679</v>
+        <v>2.36688</v>
       </c>
       <c r="C19" t="inlineStr"/>
     </row>
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.32624</v>
+        <v>2.32634</v>
       </c>
       <c r="C20" t="inlineStr"/>
     </row>
@@ -668,7 +668,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2.32562</v>
+        <v>2.32571</v>
       </c>
       <c r="C21" t="inlineStr"/>
     </row>
@@ -679,7 +679,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2.35993</v>
+        <v>2.36</v>
       </c>
       <c r="C22" t="inlineStr"/>
     </row>
@@ -690,7 +690,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2.40228</v>
+        <v>2.40234</v>
       </c>
       <c r="C23" t="inlineStr"/>
     </row>
@@ -701,7 +701,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2.44375</v>
+        <v>2.44379</v>
       </c>
       <c r="C24" t="inlineStr"/>
     </row>
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2.48293</v>
+        <v>2.48296</v>
       </c>
       <c r="C25" t="inlineStr"/>
     </row>
@@ -723,7 +723,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2.52142</v>
+        <v>2.52144</v>
       </c>
       <c r="C26" t="inlineStr"/>
     </row>
@@ -734,7 +734,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2.573</v>
+        <v>2.57303</v>
       </c>
       <c r="C27" t="inlineStr"/>
     </row>
@@ -745,7 +745,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2.63053</v>
+        <v>2.63057</v>
       </c>
       <c r="C28" t="inlineStr"/>
     </row>
@@ -756,7 +756,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2.65794</v>
+        <v>2.658</v>
       </c>
       <c r="C29" t="inlineStr"/>
     </row>
@@ -767,7 +767,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2.66999</v>
+        <v>2.67007</v>
       </c>
       <c r="C30" t="inlineStr"/>
     </row>
@@ -778,7 +778,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2.76217</v>
+        <v>2.76233</v>
       </c>
       <c r="C31" t="inlineStr"/>
     </row>
@@ -789,7 +789,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>3.03348</v>
+        <v>3.03388</v>
       </c>
       <c r="C32" t="inlineStr"/>
     </row>
@@ -800,7 +800,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3.41875</v>
+        <v>3.41933</v>
       </c>
       <c r="C33" t="inlineStr"/>
     </row>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3.74079</v>
+        <v>3.7414</v>
       </c>
       <c r="C34" t="inlineStr"/>
     </row>
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>4.12278</v>
+        <v>4.12335</v>
       </c>
       <c r="C35" t="inlineStr"/>
     </row>
@@ -833,7 +833,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>4.42986</v>
+        <v>4.43035</v>
       </c>
       <c r="C36" t="inlineStr"/>
     </row>
